--- a/Risultati/Pipeline2 TripleR/Cluster2.xlsx
+++ b/Risultati/Pipeline2 TripleR/Cluster2.xlsx
@@ -692,1287 +692,1287 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26.05024203051807</v>
+        <v>21.76858819608876</v>
       </c>
       <c r="B2" t="n">
-        <v>22.81733685603623</v>
+        <v>12.67655234796155</v>
       </c>
       <c r="C2" t="n">
-        <v>21.55357117895264</v>
+        <v>10.72276259012166</v>
       </c>
       <c r="D2" t="n">
-        <v>9.121726109518018</v>
+        <v>10.58405778830764</v>
       </c>
       <c r="E2" t="n">
-        <v>13.27361755254124</v>
+        <v>11.4790487368642</v>
       </c>
       <c r="F2" t="n">
-        <v>22.11585295350887</v>
+        <v>9.225634491884335</v>
       </c>
       <c r="G2" t="n">
-        <v>8.174217659992781</v>
+        <v>9.908500863877363</v>
       </c>
       <c r="H2" t="n">
-        <v>14.68268435225352</v>
+        <v>10.88913082168109</v>
       </c>
       <c r="I2" t="n">
-        <v>18.99992570860264</v>
+        <v>10.71020701541351</v>
       </c>
       <c r="J2" t="n">
-        <v>11.00301749680631</v>
+        <v>10.76660980899394</v>
       </c>
       <c r="K2" t="n">
-        <v>17.38301507981516</v>
+        <v>10.73975908967059</v>
       </c>
       <c r="L2" t="n">
-        <v>22.24806926587303</v>
+        <v>12.02009397502825</v>
       </c>
       <c r="M2" t="n">
-        <v>17.75322968973244</v>
+        <v>11.86187123577944</v>
       </c>
       <c r="N2" t="n">
-        <v>23.34372630493121</v>
+        <v>11.07030633501368</v>
       </c>
       <c r="O2" t="n">
-        <v>18.62543204349649</v>
+        <v>11.29194052164429</v>
       </c>
       <c r="P2" t="n">
-        <v>11.21573678228821</v>
+        <v>10.86852476250607</v>
       </c>
       <c r="Q2" t="n">
-        <v>18.59872102373681</v>
+        <v>11.49100996421223</v>
       </c>
       <c r="R2" t="n">
-        <v>21.5344594743651</v>
+        <v>12.69416113140134</v>
       </c>
       <c r="S2" t="n">
-        <v>21.97734299311168</v>
+        <v>13.32142174171437</v>
       </c>
       <c r="T2" t="n">
-        <v>15.65005644725464</v>
+        <v>11.38998811667674</v>
       </c>
       <c r="U2" t="n">
-        <v>16.24366869686698</v>
+        <v>10.86229288423628</v>
       </c>
       <c r="V2" t="n">
-        <v>19.62207553247692</v>
+        <v>12.62258169390072</v>
       </c>
       <c r="W2" t="n">
-        <v>20.16477287704508</v>
+        <v>12.327365012869</v>
       </c>
       <c r="X2" t="n">
-        <v>12.1805288189469</v>
+        <v>11.34821566268698</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.16117926652764</v>
+        <v>11.51802354818229</v>
       </c>
       <c r="Z2" t="n">
-        <v>29.97633557684678</v>
+        <v>12.24188601497855</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.35820140201392</v>
+        <v>12.87013275536073</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.22117280315682</v>
+        <v>10.84534242998532</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.55564606265872</v>
+        <v>12.30598031936645</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.55129369260895</v>
+        <v>11.31739470360689</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.66796975510954</v>
+        <v>12.18507660469037</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.6168624947561</v>
+        <v>11.63444567172012</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.37169391707523</v>
+        <v>11.38736233321474</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.80649883598926</v>
+        <v>12.11218581107326</v>
       </c>
       <c r="AI2" t="n">
-        <v>15.86652552489117</v>
+        <v>11.47703634277562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.75022508808427</v>
+        <v>11.42553902363186</v>
       </c>
       <c r="AK2" t="n">
-        <v>13.83073170246091</v>
+        <v>12.97948734517309</v>
       </c>
       <c r="AL2" t="n">
-        <v>14.69953750013209</v>
+        <v>11.84924800700547</v>
       </c>
       <c r="AM2" t="n">
-        <v>15.6428185156785</v>
+        <v>12.72412543886233</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.384057648453507</v>
+        <v>11.63826070692083</v>
       </c>
       <c r="AO2" t="n">
-        <v>34.52760769341459</v>
+        <v>14.69925046410935</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.48911781369574</v>
+        <v>11.54377037096531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27.67960451294028</v>
+        <v>11.8532281796633</v>
       </c>
       <c r="AR2" t="n">
-        <v>23.50537530529133</v>
+        <v>11.07640167347974</v>
       </c>
       <c r="AS2" t="n">
-        <v>14.11306456893119</v>
+        <v>11.47802568946576</v>
       </c>
       <c r="AT2" t="n">
-        <v>16.80753469738877</v>
+        <v>12.82772398441639</v>
       </c>
       <c r="AU2" t="n">
-        <v>11.82142505920981</v>
+        <v>11.37430226400108</v>
       </c>
       <c r="AV2" t="n">
-        <v>16.44444999483805</v>
+        <v>12.09502725058171</v>
       </c>
       <c r="AW2" t="n">
-        <v>27.2919559405754</v>
+        <v>11.82014350419722</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.60815609886527</v>
+        <v>11.41325658014089</v>
       </c>
       <c r="AY2" t="n">
-        <v>13.50138448181681</v>
+        <v>11.82183299026111</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15.83780492505572</v>
+        <v>11.81639720185385</v>
       </c>
       <c r="BA2" t="n">
-        <v>13.36567208531405</v>
+        <v>11.72725400823347</v>
       </c>
       <c r="BB2" t="n">
-        <v>20.12649832505256</v>
+        <v>11.73486690040714</v>
       </c>
       <c r="BC2" t="n">
-        <v>17.06152790233893</v>
+        <v>11.79747819201607</v>
       </c>
       <c r="BD2" t="n">
-        <v>14.23828038126581</v>
+        <v>11.36675681490161</v>
       </c>
       <c r="BE2" t="n">
-        <v>17.71642305976571</v>
+        <v>11.73545030197017</v>
       </c>
       <c r="BF2" t="n">
-        <v>12.780404949615</v>
+        <v>12.53591799680745</v>
       </c>
       <c r="BG2" t="n">
-        <v>16.85419652291499</v>
+        <v>11.90252395245512</v>
       </c>
       <c r="BH2" t="n">
-        <v>13.32260126219866</v>
+        <v>11.19543323069189</v>
       </c>
       <c r="BI2" t="n">
-        <v>12.74348162972495</v>
+        <v>12.71419956131589</v>
       </c>
       <c r="BJ2" t="n">
-        <v>13.27890116839265</v>
+        <v>13.08040743775459</v>
       </c>
       <c r="BK2" t="n">
-        <v>8.690471467357998</v>
+        <v>12.8679265741203</v>
       </c>
       <c r="BL2" t="n">
-        <v>9.242664891511149</v>
+        <v>11.29271964727941</v>
       </c>
       <c r="BM2" t="n">
-        <v>12.61373017916615</v>
+        <v>12.47453312398755</v>
       </c>
       <c r="BN2" t="n">
-        <v>17.14654353603077</v>
+        <v>12.04793604088484</v>
       </c>
       <c r="BO2" t="n">
-        <v>23.8683650984499</v>
+        <v>11.51745233432491</v>
       </c>
       <c r="BP2" t="n">
-        <v>18.2223551045671</v>
+        <v>12.0689733366931</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9.421023019725856</v>
+        <v>10.82496979189632</v>
       </c>
       <c r="BR2" t="n">
-        <v>13.28209700358545</v>
+        <v>12.85495177845954</v>
       </c>
       <c r="BS2" t="n">
-        <v>11.13789029468042</v>
+        <v>13.72519814633539</v>
       </c>
       <c r="BT2" t="n">
-        <v>16.03076765031549</v>
+        <v>12.88379283944106</v>
       </c>
       <c r="BU2" t="n">
-        <v>17.81355701486435</v>
+        <v>12.22776263229875</v>
       </c>
       <c r="BV2" t="n">
-        <v>14.01364078348586</v>
+        <v>12.52021219713095</v>
       </c>
       <c r="BW2" t="n">
-        <v>20.08174985181081</v>
+        <v>11.62901094431497</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.238628734700224</v>
+        <v>12.06675784621693</v>
       </c>
       <c r="BY2" t="n">
-        <v>35.18298642563914</v>
+        <v>11.85861611242</v>
       </c>
       <c r="BZ2" t="n">
-        <v>44.91806552280841</v>
+        <v>11.93189143413978</v>
       </c>
       <c r="CA2" t="n">
-        <v>12.26488825874988</v>
+        <v>11.46564051800411</v>
       </c>
       <c r="CB2" t="n">
-        <v>11.38357908674637</v>
+        <v>11.62551715998392</v>
       </c>
       <c r="CC2" t="n">
-        <v>22.45391675259931</v>
+        <v>12.31738131894973</v>
       </c>
       <c r="CD2" t="n">
-        <v>27.94951006784029</v>
+        <v>11.6382382914859</v>
       </c>
       <c r="CE2" t="n">
-        <v>14.51539909793569</v>
+        <v>11.79964823532831</v>
       </c>
       <c r="CF2" t="n">
-        <v>15.62584894965754</v>
+        <v>11.75618927658591</v>
       </c>
       <c r="CG2" t="n">
-        <v>8.596363396040024</v>
+        <v>11.55421592765046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47.6017996797335</v>
+        <v>20.05750047625838</v>
       </c>
       <c r="B3" t="n">
-        <v>20.45350279945224</v>
+        <v>12.266699977082</v>
       </c>
       <c r="C3" t="n">
-        <v>25.4880051221714</v>
+        <v>10.07680677679047</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4314073930176</v>
+        <v>10.16676938757694</v>
       </c>
       <c r="E3" t="n">
-        <v>8.776270669223463</v>
+        <v>11.62076776523889</v>
       </c>
       <c r="F3" t="n">
-        <v>14.63424761375225</v>
+        <v>8.950464740988432</v>
       </c>
       <c r="G3" t="n">
-        <v>17.64289621678281</v>
+        <v>10.48203908871224</v>
       </c>
       <c r="H3" t="n">
-        <v>8.565134014270502</v>
+        <v>11.44818744083227</v>
       </c>
       <c r="I3" t="n">
-        <v>17.72833041035853</v>
+        <v>10.20387692498174</v>
       </c>
       <c r="J3" t="n">
-        <v>15.99877226623565</v>
+        <v>9.960332768592998</v>
       </c>
       <c r="K3" t="n">
-        <v>14.34565794965586</v>
+        <v>10.7880058268069</v>
       </c>
       <c r="L3" t="n">
-        <v>10.51612565354568</v>
+        <v>11.07484572273606</v>
       </c>
       <c r="M3" t="n">
-        <v>19.02389529699785</v>
+        <v>11.21355372802859</v>
       </c>
       <c r="N3" t="n">
-        <v>15.05188433635816</v>
+        <v>11.39042961840651</v>
       </c>
       <c r="O3" t="n">
-        <v>11.75107622384787</v>
+        <v>11.28310165151733</v>
       </c>
       <c r="P3" t="n">
-        <v>12.7123978931088</v>
+        <v>11.11257346433285</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.653325755224422</v>
+        <v>10.74082542054473</v>
       </c>
       <c r="R3" t="n">
-        <v>15.57125037693601</v>
+        <v>12.18823058059955</v>
       </c>
       <c r="S3" t="n">
-        <v>14.97433901247406</v>
+        <v>12.0025946957775</v>
       </c>
       <c r="T3" t="n">
-        <v>17.84246661549015</v>
+        <v>11.07332212565836</v>
       </c>
       <c r="U3" t="n">
-        <v>22.39931142785282</v>
+        <v>10.87014077836963</v>
       </c>
       <c r="V3" t="n">
-        <v>15.77690190432465</v>
+        <v>12.73459109701998</v>
       </c>
       <c r="W3" t="n">
-        <v>25.10733413382609</v>
+        <v>12.00337997560683</v>
       </c>
       <c r="X3" t="n">
-        <v>10.60442342319477</v>
+        <v>11.51581409910295</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.200022587189108</v>
+        <v>11.30051167208728</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.11901407557486</v>
+        <v>11.88035308201726</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.33938153951563</v>
+        <v>11.80572920086768</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.20500758108926</v>
+        <v>11.01382988437244</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.22504294806048</v>
+        <v>12.03383227923025</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.222163740461863</v>
+        <v>11.88271273985223</v>
       </c>
       <c r="AE3" t="n">
-        <v>10.57274892168475</v>
+        <v>12.19520690926586</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.684034161217641</v>
+        <v>11.71230555411054</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.801626963597975</v>
+        <v>11.94765621083134</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.351553402471533</v>
+        <v>12.14870752932061</v>
       </c>
       <c r="AI3" t="n">
-        <v>10.21972529085824</v>
+        <v>11.90794267567044</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.99475614920275</v>
+        <v>11.99742431205504</v>
       </c>
       <c r="AK3" t="n">
-        <v>21.47594387022516</v>
+        <v>13.09749676815037</v>
       </c>
       <c r="AL3" t="n">
-        <v>16.12270988449508</v>
+        <v>12.04900268611055</v>
       </c>
       <c r="AM3" t="n">
-        <v>12.04605768233387</v>
+        <v>12.66627691027072</v>
       </c>
       <c r="AN3" t="n">
-        <v>47.43114315182131</v>
+        <v>11.82556465246205</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.22190563865452</v>
+        <v>13.76982645228639</v>
       </c>
       <c r="AP3" t="n">
-        <v>41.33661985914021</v>
+        <v>12.13778254548986</v>
       </c>
       <c r="AQ3" t="n">
-        <v>33.6161612623869</v>
+        <v>11.72510730491619</v>
       </c>
       <c r="AR3" t="n">
-        <v>18.99457776061367</v>
+        <v>11.81812939261758</v>
       </c>
       <c r="AS3" t="n">
-        <v>9.755438773376769</v>
+        <v>11.81067794595284</v>
       </c>
       <c r="AT3" t="n">
-        <v>11.72063464209682</v>
+        <v>12.82447590011406</v>
       </c>
       <c r="AU3" t="n">
-        <v>10.30449739424205</v>
+        <v>11.90330223692627</v>
       </c>
       <c r="AV3" t="n">
-        <v>10.15715174841804</v>
+        <v>12.33191850142783</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.755621273433035</v>
+        <v>12.18192494595522</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.159760705080013</v>
+        <v>11.93017063258663</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.944367576030496</v>
+        <v>12.16009671515275</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8.341073213360991</v>
+        <v>12.13228577551663</v>
       </c>
       <c r="BA3" t="n">
-        <v>12.90300877229725</v>
+        <v>12.14282445245969</v>
       </c>
       <c r="BB3" t="n">
-        <v>15.41128926907745</v>
+        <v>12.13376913947108</v>
       </c>
       <c r="BC3" t="n">
-        <v>13.88813896825933</v>
+        <v>12.18395663804374</v>
       </c>
       <c r="BD3" t="n">
-        <v>9.313090315279767</v>
+        <v>11.90653082962169</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.572153030288245</v>
+        <v>12.12193081263936</v>
       </c>
       <c r="BF3" t="n">
-        <v>10.80312019316869</v>
+        <v>12.63324889186911</v>
       </c>
       <c r="BG3" t="n">
-        <v>12.26596658409148</v>
+        <v>12.23358395606306</v>
       </c>
       <c r="BH3" t="n">
-        <v>9.463263942488448</v>
+        <v>11.82013528858553</v>
       </c>
       <c r="BI3" t="n">
-        <v>18.14525214942262</v>
+        <v>12.78119121988357</v>
       </c>
       <c r="BJ3" t="n">
-        <v>10.01728756885715</v>
+        <v>12.97134964996369</v>
       </c>
       <c r="BK3" t="n">
-        <v>9.243890918420206</v>
+        <v>12.77128958890876</v>
       </c>
       <c r="BL3" t="n">
-        <v>16.23628063930782</v>
+        <v>11.88180884918563</v>
       </c>
       <c r="BM3" t="n">
-        <v>8.286669080698225</v>
+        <v>12.60241735414468</v>
       </c>
       <c r="BN3" t="n">
-        <v>11.42607740417056</v>
+        <v>12.33146907717437</v>
       </c>
       <c r="BO3" t="n">
-        <v>9.615307330883146</v>
+        <v>12.00309676050531</v>
       </c>
       <c r="BP3" t="n">
-        <v>25.78292495928974</v>
+        <v>12.32840154376189</v>
       </c>
       <c r="BQ3" t="n">
-        <v>15.45902637586796</v>
+        <v>11.59490741878012</v>
       </c>
       <c r="BR3" t="n">
-        <v>21.4587177992453</v>
+        <v>12.71734917528472</v>
       </c>
       <c r="BS3" t="n">
-        <v>20.82748024042793</v>
+        <v>13.30755284199238</v>
       </c>
       <c r="BT3" t="n">
-        <v>14.37421920851313</v>
+        <v>12.69578700425624</v>
       </c>
       <c r="BU3" t="n">
-        <v>13.06833481295992</v>
+        <v>12.34436126145499</v>
       </c>
       <c r="BV3" t="n">
-        <v>22.59000774437277</v>
+        <v>12.49957929095254</v>
       </c>
       <c r="BW3" t="n">
-        <v>17.30206778880462</v>
+        <v>12.02687106760542</v>
       </c>
       <c r="BX3" t="n">
-        <v>19.41994846158216</v>
+        <v>12.2771907557075</v>
       </c>
       <c r="BY3" t="n">
-        <v>23.32097615877289</v>
+        <v>12.21301975648147</v>
       </c>
       <c r="BZ3" t="n">
-        <v>21.56246911507123</v>
+        <v>12.27413506983594</v>
       </c>
       <c r="CA3" t="n">
-        <v>14.33580163816404</v>
+        <v>11.93881083699965</v>
       </c>
       <c r="CB3" t="n">
-        <v>28.00796643048498</v>
+        <v>12.05938622986045</v>
       </c>
       <c r="CC3" t="n">
-        <v>10.52611539772176</v>
+        <v>12.40348931468133</v>
       </c>
       <c r="CD3" t="n">
-        <v>11.86288860158724</v>
+        <v>12.07095876817693</v>
       </c>
       <c r="CE3" t="n">
-        <v>14.46388522527319</v>
+        <v>12.132090833635</v>
       </c>
       <c r="CF3" t="n">
-        <v>10.42392828422028</v>
+        <v>12.09556927001587</v>
       </c>
       <c r="CG3" t="n">
-        <v>15.80914016916031</v>
+        <v>12.01246004247181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66.64431632220177</v>
+        <v>19.2214194281168</v>
       </c>
       <c r="B4" t="n">
-        <v>35.48135442703458</v>
+        <v>13.63919747157082</v>
       </c>
       <c r="C4" t="n">
-        <v>9.473070663784076</v>
+        <v>12.34158825237352</v>
       </c>
       <c r="D4" t="n">
-        <v>7.375940939697321</v>
+        <v>12.1142005526043</v>
       </c>
       <c r="E4" t="n">
-        <v>18.52512808143961</v>
+        <v>12.62499195747605</v>
       </c>
       <c r="F4" t="n">
-        <v>15.74078300614163</v>
+        <v>10.86427924542416</v>
       </c>
       <c r="G4" t="n">
-        <v>16.28242152823383</v>
+        <v>11.83905547024692</v>
       </c>
       <c r="H4" t="n">
-        <v>19.62765143132486</v>
+        <v>12.77602575249663</v>
       </c>
       <c r="I4" t="n">
-        <v>14.85148026540717</v>
+        <v>12.53660161525467</v>
       </c>
       <c r="J4" t="n">
-        <v>25.87617635301352</v>
+        <v>13.0904205616537</v>
       </c>
       <c r="K4" t="n">
-        <v>20.30580409477948</v>
+        <v>13.16052821927656</v>
       </c>
       <c r="L4" t="n">
-        <v>8.038877781765299</v>
+        <v>13.58079080487324</v>
       </c>
       <c r="M4" t="n">
-        <v>7.910793898286013</v>
+        <v>13.56498810305865</v>
       </c>
       <c r="N4" t="n">
-        <v>10.4941104030045</v>
+        <v>13.3219975371757</v>
       </c>
       <c r="O4" t="n">
-        <v>6.929661948756021</v>
+        <v>13.55653285508341</v>
       </c>
       <c r="P4" t="n">
-        <v>7.820910169083272</v>
+        <v>13.27142752883813</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.2775096356125</v>
+        <v>13.61336530870902</v>
       </c>
       <c r="R4" t="n">
-        <v>10.39058631102903</v>
+        <v>13.8593584738422</v>
       </c>
       <c r="S4" t="n">
-        <v>14.40199718845799</v>
+        <v>15.56213840867727</v>
       </c>
       <c r="T4" t="n">
-        <v>11.42298903626856</v>
+        <v>13.76950653523062</v>
       </c>
       <c r="U4" t="n">
-        <v>8.84440803299384</v>
+        <v>13.10469742666594</v>
       </c>
       <c r="V4" t="n">
-        <v>15.62135474360254</v>
+        <v>15.09039379931803</v>
       </c>
       <c r="W4" t="n">
-        <v>13.86272791211469</v>
+        <v>14.37133105933145</v>
       </c>
       <c r="X4" t="n">
-        <v>15.23151114885436</v>
+        <v>13.73763114392182</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.275947464627235</v>
+        <v>13.7560258913925</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.20045917683497</v>
+        <v>14.19125893947512</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.55719276785493</v>
+        <v>15.11223357434402</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.418911549319888</v>
+        <v>12.89326025545798</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.883631565919951</v>
+        <v>13.76774374572701</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.679106197259059</v>
+        <v>13.51578193824943</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.78750139589316</v>
+        <v>13.91535528196407</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.94174490217937</v>
+        <v>14.02853868818522</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.769585632355001</v>
+        <v>13.82615252650781</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.07530458234532</v>
+        <v>14.01204119738024</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.15286003570107</v>
+        <v>13.79998192025468</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.37406187208793</v>
+        <v>13.39154401765773</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.3612135913685</v>
+        <v>14.69579812549293</v>
       </c>
       <c r="AL4" t="n">
-        <v>16.26821074145118</v>
+        <v>13.66699584004545</v>
       </c>
       <c r="AM4" t="n">
-        <v>13.64339899212432</v>
+        <v>14.1019210366257</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.910536315826988</v>
+        <v>13.66261244654431</v>
       </c>
       <c r="AO4" t="n">
-        <v>12.47184220363835</v>
+        <v>15.36671539725521</v>
       </c>
       <c r="AP4" t="n">
-        <v>12.45115590346733</v>
+        <v>13.85999720099615</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17.61593971401156</v>
+        <v>13.91268189804778</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.4719302780955</v>
+        <v>13.34432182220691</v>
       </c>
       <c r="AS4" t="n">
-        <v>8.881418945604938</v>
+        <v>13.73269988558483</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.248708303804229</v>
+        <v>14.44668052526707</v>
       </c>
       <c r="AU4" t="n">
-        <v>13.8946893797956</v>
+        <v>13.71450441042921</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.39459890551151</v>
+        <v>14.25632068031206</v>
       </c>
       <c r="AW4" t="n">
-        <v>16.99494143250883</v>
+        <v>13.96539040469099</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.377964506768508</v>
+        <v>13.72095690886719</v>
       </c>
       <c r="AY4" t="n">
-        <v>13.96109740361549</v>
+        <v>14.08566126582453</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14.92637785493143</v>
+        <v>14.19819880434273</v>
       </c>
       <c r="BA4" t="n">
-        <v>12.71319284902613</v>
+        <v>13.65509037439615</v>
       </c>
       <c r="BB4" t="n">
-        <v>15.06085921523923</v>
+        <v>13.82953383430598</v>
       </c>
       <c r="BC4" t="n">
-        <v>10.73376560941659</v>
+        <v>13.75725751475011</v>
       </c>
       <c r="BD4" t="n">
-        <v>14.32797675902376</v>
+        <v>13.66709853615463</v>
       </c>
       <c r="BE4" t="n">
-        <v>9.489250124353005</v>
+        <v>13.94527179778892</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.432714147372921</v>
+        <v>13.94056038099016</v>
       </c>
       <c r="BG4" t="n">
-        <v>9.392242263031658</v>
+        <v>14.02351503610926</v>
       </c>
       <c r="BH4" t="n">
-        <v>11.88291727057099</v>
+        <v>13.424354786292</v>
       </c>
       <c r="BI4" t="n">
-        <v>26.3412604152451</v>
+        <v>14.30508694822044</v>
       </c>
       <c r="BJ4" t="n">
-        <v>25.41231360168544</v>
+        <v>14.20849724735322</v>
       </c>
       <c r="BK4" t="n">
-        <v>9.993701905194865</v>
+        <v>14.13383383181247</v>
       </c>
       <c r="BL4" t="n">
-        <v>14.54287409224997</v>
+        <v>13.2477887298199</v>
       </c>
       <c r="BM4" t="n">
-        <v>10.04590726212063</v>
+        <v>14.2417162517482</v>
       </c>
       <c r="BN4" t="n">
-        <v>10.17379159333218</v>
+        <v>13.65460972810822</v>
       </c>
       <c r="BO4" t="n">
-        <v>21.21550709577865</v>
+        <v>13.42550818606646</v>
       </c>
       <c r="BP4" t="n">
-        <v>16.32221697671888</v>
+        <v>14.0837676283987</v>
       </c>
       <c r="BQ4" t="n">
-        <v>11.34575669897675</v>
+        <v>13.14425229569611</v>
       </c>
       <c r="BR4" t="n">
-        <v>15.3892868449672</v>
+        <v>15.26287926540968</v>
       </c>
       <c r="BS4" t="n">
-        <v>13.10049016947784</v>
+        <v>14.64273296365377</v>
       </c>
       <c r="BT4" t="n">
-        <v>16.54223762386538</v>
+        <v>15.34264175473483</v>
       </c>
       <c r="BU4" t="n">
-        <v>20.45444868559923</v>
+        <v>14.63086212622088</v>
       </c>
       <c r="BV4" t="n">
-        <v>16.05948341045251</v>
+        <v>14.90316061688524</v>
       </c>
       <c r="BW4" t="n">
-        <v>9.492196219640491</v>
+        <v>14.07201846224877</v>
       </c>
       <c r="BX4" t="n">
-        <v>22.37301324713635</v>
+        <v>14.37826769240192</v>
       </c>
       <c r="BY4" t="n">
-        <v>22.52886043051378</v>
+        <v>13.93632619306337</v>
       </c>
       <c r="BZ4" t="n">
-        <v>24.15490865880541</v>
+        <v>13.83493072926456</v>
       </c>
       <c r="CA4" t="n">
-        <v>33.79443151788739</v>
+        <v>13.86117317085598</v>
       </c>
       <c r="CB4" t="n">
-        <v>24.34999350828516</v>
+        <v>13.28742708985468</v>
       </c>
       <c r="CC4" t="n">
-        <v>17.68543750120772</v>
+        <v>14.76710525970132</v>
       </c>
       <c r="CD4" t="n">
-        <v>10.70352565156465</v>
+        <v>13.82376957758018</v>
       </c>
       <c r="CE4" t="n">
-        <v>12.28662944638631</v>
+        <v>14.1460411768755</v>
       </c>
       <c r="CF4" t="n">
-        <v>11.81392835597953</v>
+        <v>14.1835573927276</v>
       </c>
       <c r="CG4" t="n">
-        <v>13.56317477045674</v>
+        <v>13.83087996833957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.4958833993722</v>
+        <v>22.64415467148284</v>
       </c>
       <c r="B5" t="n">
-        <v>25.06961096507733</v>
+        <v>12.02660656523028</v>
       </c>
       <c r="C5" t="n">
-        <v>24.56913367598285</v>
+        <v>10.16440868306869</v>
       </c>
       <c r="D5" t="n">
-        <v>14.26958731517841</v>
+        <v>10.45561989020362</v>
       </c>
       <c r="E5" t="n">
-        <v>16.02103779417308</v>
+        <v>11.36000629291364</v>
       </c>
       <c r="F5" t="n">
-        <v>17.08250853561971</v>
+        <v>9.530015446747981</v>
       </c>
       <c r="G5" t="n">
-        <v>5.748042401570023</v>
+        <v>10.0855580677941</v>
       </c>
       <c r="H5" t="n">
-        <v>18.68556218954825</v>
+        <v>11.1102789543256</v>
       </c>
       <c r="I5" t="n">
-        <v>26.19396238242537</v>
+        <v>11.22636694659132</v>
       </c>
       <c r="J5" t="n">
-        <v>11.54778480813694</v>
+        <v>11.09909486789822</v>
       </c>
       <c r="K5" t="n">
-        <v>28.68990688861856</v>
+        <v>11.10327305921903</v>
       </c>
       <c r="L5" t="n">
-        <v>28.340540076266</v>
+        <v>13.06894718430466</v>
       </c>
       <c r="M5" t="n">
-        <v>8.629236114326865</v>
+        <v>12.81225213108067</v>
       </c>
       <c r="N5" t="n">
-        <v>32.97302741979648</v>
+        <v>11.96207499658008</v>
       </c>
       <c r="O5" t="n">
-        <v>25.11022930664818</v>
+        <v>11.82839514893994</v>
       </c>
       <c r="P5" t="n">
-        <v>10.36947827915283</v>
+        <v>11.31019183836831</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.45225311707958</v>
+        <v>11.94160119566563</v>
       </c>
       <c r="R5" t="n">
-        <v>36.40516138197239</v>
+        <v>13.79041487610399</v>
       </c>
       <c r="S5" t="n">
-        <v>27.56306613238431</v>
+        <v>13.30460264429141</v>
       </c>
       <c r="T5" t="n">
-        <v>20.95067995713104</v>
+        <v>11.90914979220845</v>
       </c>
       <c r="U5" t="n">
-        <v>9.543456227504688</v>
+        <v>11.54685453968911</v>
       </c>
       <c r="V5" t="n">
-        <v>13.95849426353818</v>
+        <v>12.62142118165925</v>
       </c>
       <c r="W5" t="n">
-        <v>9.035604834957383</v>
+        <v>12.75137956552356</v>
       </c>
       <c r="X5" t="n">
-        <v>10.44737395627265</v>
+        <v>11.60203621858543</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.25481118729249</v>
+        <v>11.74306035885842</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.079164953981589</v>
+        <v>12.70608021926674</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.264156991980624</v>
+        <v>13.00941215070887</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.01789631627959</v>
+        <v>11.5999278862279</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.710777007280818</v>
+        <v>13.24884251037356</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.68527494418289</v>
+        <v>11.78116533809026</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.29938996164648</v>
+        <v>12.84998527574237</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.329498114191507</v>
+        <v>11.88200178866377</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.79908608423165</v>
+        <v>11.62913274283648</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.39483178337985</v>
+        <v>12.73039754003339</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.39001033770467</v>
+        <v>11.84577128297155</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.43770133447034</v>
+        <v>12.07256028298287</v>
       </c>
       <c r="AK5" t="n">
-        <v>5.724467845870675</v>
+        <v>13.61157744286007</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.35555983270743</v>
+        <v>12.51964781262077</v>
       </c>
       <c r="AM5" t="n">
-        <v>13.26167643720714</v>
+        <v>13.62994800964009</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.564436391884147</v>
+        <v>12.17620319271856</v>
       </c>
       <c r="AO5" t="n">
-        <v>10.56582661614682</v>
+        <v>15.79160360003479</v>
       </c>
       <c r="AP5" t="n">
-        <v>10.77661285346856</v>
+        <v>11.94116708943069</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.050068586129562</v>
+        <v>12.24031568426125</v>
       </c>
       <c r="AR5" t="n">
-        <v>9.790026302024897</v>
+        <v>11.46575558333897</v>
       </c>
       <c r="AS5" t="n">
-        <v>14.80248950942803</v>
+        <v>11.90673100635327</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.207525964317645</v>
+        <v>13.51530554541937</v>
       </c>
       <c r="AU5" t="n">
-        <v>14.99331787744157</v>
+        <v>11.70244282419576</v>
       </c>
       <c r="AV5" t="n">
-        <v>18.14715748692809</v>
+        <v>12.44096296234458</v>
       </c>
       <c r="AW5" t="n">
-        <v>10.19441541414096</v>
+        <v>12.19978555172414</v>
       </c>
       <c r="AX5" t="n">
-        <v>15.18017497524053</v>
+        <v>11.7509521383869</v>
       </c>
       <c r="AY5" t="n">
-        <v>10.99795349133348</v>
+        <v>12.07047684763525</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15.26863089744721</v>
+        <v>11.9911049965817</v>
       </c>
       <c r="BA5" t="n">
-        <v>16.59774995500662</v>
+        <v>12.326884460731</v>
       </c>
       <c r="BB5" t="n">
-        <v>14.21256816442254</v>
+        <v>12.22598104823017</v>
       </c>
       <c r="BC5" t="n">
-        <v>9.989763497161062</v>
+        <v>12.38312992957185</v>
       </c>
       <c r="BD5" t="n">
-        <v>10.72135020148781</v>
+        <v>11.6955785976325</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.589754480881937</v>
+        <v>12.09656146129178</v>
       </c>
       <c r="BF5" t="n">
-        <v>11.57684423253334</v>
+        <v>13.43379312807282</v>
       </c>
       <c r="BG5" t="n">
-        <v>12.07527370359284</v>
+        <v>12.27079094877645</v>
       </c>
       <c r="BH5" t="n">
-        <v>25.84022117176386</v>
+        <v>11.63333389610623</v>
       </c>
       <c r="BI5" t="n">
-        <v>19.36166206348603</v>
+        <v>13.35795599029592</v>
       </c>
       <c r="BJ5" t="n">
-        <v>15.8085076893731</v>
+        <v>14.06192218522678</v>
       </c>
       <c r="BK5" t="n">
-        <v>26.69985125244008</v>
+        <v>13.91260485312389</v>
       </c>
       <c r="BL5" t="n">
-        <v>13.3615720787112</v>
+        <v>11.95381057798991</v>
       </c>
       <c r="BM5" t="n">
-        <v>13.24890149199946</v>
+        <v>13.08055337100705</v>
       </c>
       <c r="BN5" t="n">
-        <v>14.51899863958835</v>
+        <v>12.86366289911578</v>
       </c>
       <c r="BO5" t="n">
-        <v>10.37820624548095</v>
+        <v>12.2188123744899</v>
       </c>
       <c r="BP5" t="n">
-        <v>19.57003329257149</v>
+        <v>12.59735827341419</v>
       </c>
       <c r="BQ5" t="n">
-        <v>13.72477186424356</v>
+        <v>11.37062680357676</v>
       </c>
       <c r="BR5" t="n">
-        <v>15.76548208593259</v>
+        <v>12.7794036388589</v>
       </c>
       <c r="BS5" t="n">
-        <v>17.67997376237436</v>
+        <v>14.8748388525779</v>
       </c>
       <c r="BT5" t="n">
-        <v>16.45281638526797</v>
+        <v>12.7909729503955</v>
       </c>
       <c r="BU5" t="n">
-        <v>14.39400325419489</v>
+        <v>12.29999065747934</v>
       </c>
       <c r="BV5" t="n">
-        <v>12.53282246137642</v>
+        <v>12.56599877132607</v>
       </c>
       <c r="BW5" t="n">
-        <v>9.701290312414113</v>
+        <v>11.76004063783459</v>
       </c>
       <c r="BX5" t="n">
-        <v>14.65093860372705</v>
+        <v>12.21463016939362</v>
       </c>
       <c r="BY5" t="n">
-        <v>19.82625525591812</v>
+        <v>12.28325035313108</v>
       </c>
       <c r="BZ5" t="n">
-        <v>15.61948421396744</v>
+        <v>12.45565338588973</v>
       </c>
       <c r="CA5" t="n">
-        <v>22.45912516182652</v>
+        <v>11.59682062846996</v>
       </c>
       <c r="CB5" t="n">
-        <v>18.14263828198238</v>
+        <v>12.43489396158787</v>
       </c>
       <c r="CC5" t="n">
-        <v>12.31710990773718</v>
+        <v>12.30556277449348</v>
       </c>
       <c r="CD5" t="n">
-        <v>14.03397519715017</v>
+        <v>12.08641712860428</v>
       </c>
       <c r="CE5" t="n">
-        <v>10.44847405817326</v>
+        <v>12.06053456867411</v>
       </c>
       <c r="CF5" t="n">
-        <v>11.6903581904843</v>
+        <v>11.87333377667296</v>
       </c>
       <c r="CG5" t="n">
-        <v>20.41638623494556</v>
+        <v>11.89795749520232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22.67659853155621</v>
+        <v>20.15592738745202</v>
       </c>
       <c r="B6" t="n">
-        <v>22.53470569889887</v>
+        <v>13.77362953666399</v>
       </c>
       <c r="C6" t="n">
-        <v>13.07362849704819</v>
+        <v>12.48338199135527</v>
       </c>
       <c r="D6" t="n">
-        <v>14.23022745038133</v>
+        <v>12.5115263313222</v>
       </c>
       <c r="E6" t="n">
-        <v>19.41104210847143</v>
+        <v>13.48083053193346</v>
       </c>
       <c r="F6" t="n">
-        <v>18.99405428505214</v>
+        <v>11.79972482414949</v>
       </c>
       <c r="G6" t="n">
-        <v>18.78517489884058</v>
+        <v>13.34922408433175</v>
       </c>
       <c r="H6" t="n">
-        <v>18.44655875729977</v>
+        <v>14.37726850867939</v>
       </c>
       <c r="I6" t="n">
-        <v>13.47593732790306</v>
+        <v>13.79964859522327</v>
       </c>
       <c r="J6" t="n">
-        <v>23.24528670239107</v>
+        <v>14.2503181150509</v>
       </c>
       <c r="K6" t="n">
-        <v>15.8339315336953</v>
+        <v>14.85818958786214</v>
       </c>
       <c r="L6" t="n">
-        <v>18.0564972551084</v>
+        <v>15.08682872610828</v>
       </c>
       <c r="M6" t="n">
-        <v>15.31790687566234</v>
+        <v>15.15414524247944</v>
       </c>
       <c r="N6" t="n">
-        <v>19.03104701536547</v>
+        <v>15.40079100794899</v>
       </c>
       <c r="O6" t="n">
-        <v>15.20148702559203</v>
+        <v>15.35580275673698</v>
       </c>
       <c r="P6" t="n">
-        <v>24.39031014512963</v>
+        <v>14.98082957832431</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.78991448235363</v>
+        <v>14.97420321757813</v>
       </c>
       <c r="R6" t="n">
-        <v>16.8156753375206</v>
+        <v>15.77807713163589</v>
       </c>
       <c r="S6" t="n">
-        <v>13.00471105477866</v>
+        <v>16.56200995641718</v>
       </c>
       <c r="T6" t="n">
-        <v>15.07066957779375</v>
+        <v>15.37480113811865</v>
       </c>
       <c r="U6" t="n">
-        <v>15.25174115742632</v>
+        <v>14.89653763647308</v>
       </c>
       <c r="V6" t="n">
-        <v>20.66990506855784</v>
+        <v>16.67070963425635</v>
       </c>
       <c r="W6" t="n">
-        <v>25.91745407518834</v>
+        <v>15.82608325925382</v>
       </c>
       <c r="X6" t="n">
-        <v>8.418041416649244</v>
+        <v>15.413936755103</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.6848566093411</v>
+        <v>15.143365854905</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.58552545914553</v>
+        <v>15.57378442837991</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.39916868294404</v>
+        <v>16.28431975018171</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.43731304461422</v>
+        <v>14.75927999211182</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.566492335699024</v>
+        <v>15.50758646042656</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.217758238847672</v>
+        <v>15.39649325552828</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.13353595015088</v>
+        <v>15.56013136283755</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.0845626417852</v>
+        <v>15.67268655357976</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.47537591295255</v>
+        <v>15.66164315851064</v>
       </c>
       <c r="AH6" t="n">
-        <v>21.05391177514539</v>
+        <v>15.7043534949744</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.32904937350017</v>
+        <v>15.63220658205174</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.56946468927728</v>
+        <v>15.34372386751124</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.15485461233979</v>
+        <v>16.40454689977758</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.078099299602446</v>
+        <v>15.43099422405467</v>
       </c>
       <c r="AM6" t="n">
-        <v>14.64350821123666</v>
+        <v>15.86095791565404</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.15056881205754</v>
+        <v>15.38286570554363</v>
       </c>
       <c r="AO6" t="n">
-        <v>23.98464231749579</v>
+        <v>16.69145687430863</v>
       </c>
       <c r="AP6" t="n">
-        <v>11.66918517529617</v>
+        <v>15.78214361299768</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11.95927986189104</v>
+        <v>15.38632597435795</v>
       </c>
       <c r="AR6" t="n">
-        <v>13.85094513538081</v>
+        <v>15.26185062692529</v>
       </c>
       <c r="AS6" t="n">
-        <v>20.22053877436571</v>
+        <v>15.55538456476585</v>
       </c>
       <c r="AT6" t="n">
-        <v>19.24595908430289</v>
+        <v>16.09413047549694</v>
       </c>
       <c r="AU6" t="n">
-        <v>13.90497905050601</v>
+        <v>15.56886892578641</v>
       </c>
       <c r="AV6" t="n">
-        <v>7.164767714807705</v>
+        <v>15.95318717996636</v>
       </c>
       <c r="AW6" t="n">
-        <v>12.08613873713808</v>
+        <v>15.70699675079082</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.386378051933916</v>
+        <v>15.56045384230662</v>
       </c>
       <c r="AY6" t="n">
-        <v>10.86355864814313</v>
+        <v>15.7823658030779</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12.86506411034129</v>
+        <v>15.89823520442705</v>
       </c>
       <c r="BA6" t="n">
-        <v>12.95720989315955</v>
+        <v>15.49366341659915</v>
       </c>
       <c r="BB6" t="n">
-        <v>13.25818657931795</v>
+        <v>15.65124740603764</v>
       </c>
       <c r="BC6" t="n">
-        <v>13.62613764773539</v>
+        <v>15.59646925866322</v>
       </c>
       <c r="BD6" t="n">
-        <v>11.9147722029803</v>
+        <v>15.49670135954523</v>
       </c>
       <c r="BE6" t="n">
-        <v>10.14830582350147</v>
+        <v>15.70660679231402</v>
       </c>
       <c r="BF6" t="n">
-        <v>11.93431696436953</v>
+        <v>15.78344339074094</v>
       </c>
       <c r="BG6" t="n">
-        <v>10.31792442554443</v>
+        <v>15.73547301622046</v>
       </c>
       <c r="BH6" t="n">
-        <v>7.170753452404815</v>
+        <v>15.32081136743843</v>
       </c>
       <c r="BI6" t="n">
-        <v>11.58391430692589</v>
+        <v>15.90653843595622</v>
       </c>
       <c r="BJ6" t="n">
-        <v>24.14617017176273</v>
+        <v>16.00501355791799</v>
       </c>
       <c r="BK6" t="n">
-        <v>15.95387319422342</v>
+        <v>16.10916780734486</v>
       </c>
       <c r="BL6" t="n">
-        <v>21.19456542829604</v>
+        <v>15.21074611547682</v>
       </c>
       <c r="BM6" t="n">
-        <v>20.73155619440578</v>
+        <v>15.91945104618023</v>
       </c>
       <c r="BN6" t="n">
-        <v>17.3085332806508</v>
+        <v>15.53634154578355</v>
       </c>
       <c r="BO6" t="n">
-        <v>21.01090591872197</v>
+        <v>15.37666667647658</v>
       </c>
       <c r="BP6" t="n">
-        <v>24.65741089819248</v>
+        <v>15.85723803243271</v>
       </c>
       <c r="BQ6" t="n">
-        <v>12.43920803435902</v>
+        <v>15.22365722388775</v>
       </c>
       <c r="BR6" t="n">
-        <v>17.08448841760394</v>
+        <v>16.69015984774753</v>
       </c>
       <c r="BS6" t="n">
-        <v>20.6797448409879</v>
+        <v>16.55131195744841</v>
       </c>
       <c r="BT6" t="n">
-        <v>15.25430239093228</v>
+        <v>16.75186211014111</v>
       </c>
       <c r="BU6" t="n">
-        <v>10.103527135965</v>
+        <v>16.21196168827742</v>
       </c>
       <c r="BV6" t="n">
-        <v>23.13722844462258</v>
+        <v>16.42606759849675</v>
       </c>
       <c r="BW6" t="n">
-        <v>9.091097581117646</v>
+        <v>15.76182010009805</v>
       </c>
       <c r="BX6" t="n">
-        <v>10.37885754395257</v>
+        <v>15.98714734084349</v>
       </c>
       <c r="BY6" t="n">
-        <v>21.97542549072823</v>
+        <v>15.67341696411452</v>
       </c>
       <c r="BZ6" t="n">
-        <v>21.10813822211423</v>
+        <v>15.56212264850204</v>
       </c>
       <c r="CA6" t="n">
-        <v>26.82133379654943</v>
+        <v>15.55141926441786</v>
       </c>
       <c r="CB6" t="n">
-        <v>10.58297905213247</v>
+        <v>15.25340243921218</v>
       </c>
       <c r="CC6" t="n">
-        <v>16.88906837210819</v>
+        <v>16.29687216801117</v>
       </c>
       <c r="CD6" t="n">
-        <v>13.38648111853697</v>
+        <v>15.67176061768765</v>
       </c>
       <c r="CE6" t="n">
-        <v>8.216204612850321</v>
+        <v>15.89818205137384</v>
       </c>
       <c r="CF6" t="n">
-        <v>13.38135832635574</v>
+        <v>15.85217491320338</v>
       </c>
       <c r="CG6" t="n">
-        <v>12.46984147238637</v>
+        <v>15.63054821276557</v>
       </c>
     </row>
   </sheetData>
